--- a/Lacin_summary_RTSC_3comp.xlsx
+++ b/Lacin_summary_RTSC_3comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8A460-D948-452B-A253-EBBE37DD78B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1712F-78A9-4352-9EA5-B179BED1EC61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{E6DCDFEA-8D33-4755-9162-1CC8B019E90C}"/>
   </bookViews>
@@ -387,222 +387,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.9739924555231093E-2</v>
+        <v>1.98829784474812E-2</v>
       </c>
       <c r="B1">
-        <v>1.378459761413098E-3</v>
+        <v>1.4278367300995696E-3</v>
       </c>
       <c r="C1">
-        <v>2.18582543822665E-3</v>
+        <v>5.974888580147413E-3</v>
       </c>
       <c r="D1">
-        <v>4.0113240328860753E-2</v>
+        <v>3.9833876313827073E-2</v>
       </c>
       <c r="E1">
-        <v>2.337310900379919E-14</v>
+        <v>4.3537997524492957E-12</v>
       </c>
       <c r="F1">
-        <v>4.8526325277855498E-2</v>
+        <v>5.3154717073873162E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.98829784474812E-2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1.4278367300995696E-3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.974888580147413E-3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.9833876313827073E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.3537997524492957E-12</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.3154717073873162E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0079538176883131E-2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1.5727844017049885E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.3202556166909505E-2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.6916389880212619E-2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.0050827471431909E-12</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9684365170394563E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0050582371106181E-2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1.491805218560184E-3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.4066367837706319E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.9433650306499056E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.4643070163471325E-12</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.8209977041466028E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.0033334091479841E-2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1.4797443986787168E-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.5048268304868823E-3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.9408831187314863E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.1767529162429277E-12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.990308980831606E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>3.9909833763152904E-4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.0000022204460493E-8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.3333333333355648E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.2207447061276762E-14</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.0000000000022703E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>3.9434981488954565E-4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.0000022204460493E-8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.3333333333355634E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.2205223995299433E-14</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.0000000000022633E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>3.8488875402747545E-4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.0000022204460493E-8</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3.3333333333355614E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2.2204991894098601E-14</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.0000000000022546E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3.7217241964190628E-4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.0000022204460493E-8</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.3333333333355593E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.2204849181022519E-14</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.0000000000022465E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2.1909827977453296E-3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.0000022204484736E-8</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3.3333333333355537E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4999999999999778</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.0000000000022205E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.9607843137277106E-2</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1.9963171510571863E-3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.000002220446807E-8</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3.3333333333355537E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4999999999999778</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.0000000000022205E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
